--- a/Doc/融创接口/设计协同项目/设计协同项目原型审批BPM字段.xlsx
+++ b/Doc/融创接口/设计协同项目/设计协同项目原型审批BPM字段.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0CAD\Project\融创\Code\Doc\融创接口\设计协同项目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9225B6-A749-4E34-A789-5A6303EDAE98}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E94B6C-31CE-4B2F-97AA-DB42E43FC08D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="168">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,10 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>原型的类型，外窗1，门2，栏杆3，厨房4，卫生间5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -213,10 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>静态门窗时使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宽度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -225,26 +217,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>动态门窗使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否有附框</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文件服务器中的原型dwg存储地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>取值说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>动态门窗使用，代号-取值说明可多条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>prototype</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -341,10 +321,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>静态门窗时使用,  0否， 1是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不限</t>
   </si>
   <si>
@@ -364,22 +340,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>动态门窗使用，代号-取值说明可多条; 0无，1不限，2值，3范围，4系列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原型审批类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>stirng</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ApprovalType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参数取值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -392,31 +356,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P11:动态外窗原型审批；
-P12静态外窗原型审批；
-P21动态门原型审批；
-P22静态门原型审批；
-P31动态厨房原型审批；
-P32静态厨房型审批
-P41动态卫生间原型审批；
-P42静态卫生间原型审批；
-P51栏杆原型审批；
-P61空调原型审批；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态外窗表单XML数据通用数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>静态外窗表单XML数据通用数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>静态门表单XML数据通用数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>门类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -445,10 +384,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>动态门表单XML数据通用数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>门尺寸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -461,14 +396,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>动态厨房表单XML数据通用数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>静态厨房表单XML数据通用数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>厨房类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -545,14 +472,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>动态卫生间表单XML数据通用数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>静态卫生间单XML数据通用数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>短边尺寸范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -577,10 +496,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>栏杆表单XML数据通用数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>closestoolSize</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -590,10 +505,6 @@
   </si>
   <si>
     <t>railingType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空调表单XML数据通用数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -634,6 +545,180 @@
   </si>
   <si>
     <t>设计系统项目原型审批BPM字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代号-取值说明的父节点，可有多个参数取值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无，不限，值，范围，系列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P11:动态外窗原型审批；
+P12:静态外窗原型审批；
+P21:动态门原型审批；
+P22:静态门原型审批；
+P31:动态厨房原型审批；
+P32:静态厨房型审批
+P41:动态卫生间原型审批；
+P42:静态卫生间原型审批；
+P51:栏杆原型审批；
+P61:空调原型审批；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态外窗表单XML数据通用数据（表单类型P11）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态外窗表单XML数据通用数据（表单类型P12）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态门表单XML数据通用数据（表单类型P21）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态门表单XML数据通用数据（表单类型P22）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态厨房表单XML数据通用数据（表单类型P31）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态厨房表单XML数据通用数据（表单类型P32）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态卫生间表单XML数据通用数据（表单类型P41）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态卫生间单XML数据通用数据（表单类型P42）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栏杆表单XML数据通用数据（表单类型P51）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调表单XML数据通用数据（表单类型P61）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部，北京、华北、上海、东南、华中、西南、广深、海南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PageCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态外窗原型审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态外窗原型审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态门原型审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态门原型审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态厨房原型审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态厨房原型审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态卫生间原型审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态卫生间原型审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栏杆原型审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调原型审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件服务器中的原型dwg存储地址，也就是附件下载地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批流程：
+区域人员提交的两级审批：申请人-&gt;区域研发负责人-&gt;集团研发负责人
+集团人员提交的一级审批：申请人-&gt;集团研发负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：
+页面的大标题和流程主题为： 表单页面标题-原型编号   例如： 动态外窗原型审批-CD02X1
+附件链接统一为“原型文件地址”字段
+其余按字段名称对应表单内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,7 +815,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -770,6 +855,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -839,16 +939,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>23281</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>110836</xdr:rowOff>
+      <xdr:colOff>15661</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>110835</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -871,8 +971,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15863455" y="6470073"/>
-          <a:ext cx="6728881" cy="4003963"/>
+          <a:off x="15857220" y="6141720"/>
+          <a:ext cx="6728881" cy="4073236"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -892,7 +992,7 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>29953</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>180101</xdr:rowOff>
+      <xdr:rowOff>180102</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -936,7 +1036,7 @@
       <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>131980</xdr:rowOff>
+      <xdr:rowOff>131981</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -971,15 +1071,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>27709</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:colOff>20089</xdr:colOff>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>79766</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1003,8 +1103,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8548255" y="15600218"/>
-          <a:ext cx="6733309" cy="3765075"/>
+          <a:off x="8542020" y="16047720"/>
+          <a:ext cx="6733309" cy="3844046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1017,14 +1117,14 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>82226</xdr:rowOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>82227</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1047,8 +1147,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15863455" y="15988145"/>
-          <a:ext cx="6705600" cy="3961499"/>
+          <a:off x="15864840" y="16047720"/>
+          <a:ext cx="6705600" cy="4044626"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1059,16 +1159,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>19274</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>4930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>13855</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>176492</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>33128</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>180525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1091,8 +1191,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8548256" y="19673455"/>
-          <a:ext cx="6719454" cy="3861801"/>
+          <a:off x="15886803" y="20525142"/>
+          <a:ext cx="6719454" cy="3922842"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1103,16 +1203,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>17929</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>13897</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>593532</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1861</xdr:colOff>
       <xdr:row>110</xdr:row>
-      <xdr:rowOff>55418</xdr:rowOff>
+      <xdr:rowOff>69314</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1135,8 +1235,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15863455" y="20061383"/>
-          <a:ext cx="6689532" cy="3740726"/>
+          <a:off x="8570258" y="20534109"/>
+          <a:ext cx="6689532" cy="3802664"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1148,15 +1248,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>7621</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>13855</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>189277</xdr:rowOff>
+      <xdr:colOff>21475</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>196897</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1179,8 +1279,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8548256" y="23746691"/>
-          <a:ext cx="6719454" cy="3486659"/>
+          <a:off x="8557261" y="24772620"/>
+          <a:ext cx="6719454" cy="3557317"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1191,16 +1291,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>608255</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>30481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>13854</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>55663</xdr:rowOff>
+      <xdr:colOff>12509</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>85247</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1223,8 +1323,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15863455" y="24134618"/>
-          <a:ext cx="6719454" cy="3740972"/>
+          <a:off x="15866184" y="24889610"/>
+          <a:ext cx="6719454" cy="3802013"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1499,10 +1599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:W121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1518,18 +1618,18 @@
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B1" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1550,7 +1650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" s="7">
         <v>1</v>
       </c>
@@ -1563,7 +1663,7 @@
       <c r="E3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="14">
         <v>3</v>
       </c>
       <c r="G3" s="7"/>
@@ -1571,7 +1671,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
         <v>2</v>
       </c>
@@ -1584,7 +1684,7 @@
       <c r="E4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="14">
         <v>6</v>
       </c>
       <c r="G4" s="7"/>
@@ -1592,7 +1692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>3</v>
       </c>
@@ -1605,7 +1705,7 @@
       <c r="E5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="14">
         <v>36</v>
       </c>
       <c r="G5" s="7"/>
@@ -1613,12 +1713,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>22</v>
@@ -1626,13 +1726,13 @@
       <c r="E6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>80</v>
+      <c r="F6" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>5</v>
       </c>
@@ -1645,13 +1745,13 @@
       <c r="E7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="7"/>
       <c r="H7" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>6</v>
       </c>
@@ -1664,24 +1764,24 @@
       <c r="E8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="14">
         <v>20</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
@@ -1698,142 +1798,205 @@
         <v>12</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="7">
+    <row r="13" spans="2:20" ht="156" x14ac:dyDescent="0.25">
+      <c r="B13" s="14">
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>83</v>
+        <v>154</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="F13" s="14">
+        <v>64</v>
+      </c>
+      <c r="G13" s="14"/>
       <c r="H13" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B14" s="7">
+        <v>131</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="14">
         <v>2</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="7">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="F14" s="14">
+        <v>64</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="156" x14ac:dyDescent="0.25">
-      <c r="B15" s="7">
+        <v>76</v>
+      </c>
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" spans="2:20" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="B15" s="14">
         <v>3</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="F15" s="14">
+        <v>64</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="14">
         <v>4</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="14">
+        <v>64</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="7">
+      <c r="J16" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+    </row>
+    <row r="17" spans="1:23" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="B17" s="14">
         <v>5</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="14">
+        <v>256</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="7">
+        <v>165</v>
+      </c>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+    </row>
+    <row r="18" spans="1:23" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="B18" s="14">
         <v>6</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="14">
+        <v>128</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B19" s="14">
+        <v>7</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="7">
-        <v>7</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="E19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H19" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
@@ -1843,19 +2006,31 @@
       <c r="G20" s="11"/>
       <c r="H20" s="13"/>
       <c r="I20" s="10"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B21" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>0</v>
       </c>
@@ -1872,319 +2047,333 @@
         <v>12</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B23" s="7">
         <v>1</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="14">
+        <v>64</v>
+      </c>
       <c r="G23" s="7"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B24" s="7">
         <v>2</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="14">
+        <v>64</v>
+      </c>
       <c r="G24" s="7"/>
       <c r="H24" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B25" s="7">
         <v>3</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="F25" s="14">
+        <v>64</v>
+      </c>
       <c r="G25" s="7"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B26" s="7">
         <v>4</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="F26" s="14">
+        <v>64</v>
+      </c>
       <c r="G26" s="7"/>
       <c r="H26" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B27" s="7">
         <v>5</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="F27" s="14">
+        <v>64</v>
+      </c>
       <c r="G27" s="7"/>
       <c r="H27" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B28" s="7">
         <v>6</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E28" s="8"/>
-      <c r="F28" s="7"/>
+      <c r="F28" s="14"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="9"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H28" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B29" s="7">
         <v>7</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="7"/>
+      <c r="F29" s="14">
+        <v>64</v>
+      </c>
       <c r="G29" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B30" s="7">
         <v>8</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="7"/>
+      <c r="F30" s="14">
+        <v>64</v>
+      </c>
       <c r="G30" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B31" s="7">
         <v>9</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="7"/>
+      <c r="F31" s="14">
+        <v>64</v>
+      </c>
       <c r="G31" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B32" s="7">
         <v>10</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D32" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="14">
+        <v>64</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B33" s="7">
+        <v>11</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="7">
-        <v>11</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="E33" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="7"/>
+      <c r="F33" s="14">
+        <v>64</v>
+      </c>
       <c r="G33" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34" s="7">
         <v>12</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="7"/>
+      <c r="F34" s="14">
+        <v>64</v>
+      </c>
       <c r="G34" s="8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B35" s="7">
         <v>13</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="7"/>
+      <c r="F35" s="14">
+        <v>64</v>
+      </c>
       <c r="G35" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B36" s="7">
         <v>14</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="7"/>
+      <c r="F36" s="14">
+        <v>64</v>
+      </c>
       <c r="G36" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B37" s="7">
         <v>15</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="7"/>
+      <c r="F37" s="14">
+        <v>64</v>
+      </c>
       <c r="G37" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="H37" s="9"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B40" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>0</v>
       </c>
@@ -2201,139 +2390,161 @@
         <v>12</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B42" s="7">
         <v>1</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="7"/>
+      <c r="F42" s="14">
+        <v>64</v>
+      </c>
       <c r="G42" s="7"/>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B43" s="7">
         <v>2</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="7"/>
+      <c r="F43" s="14">
+        <v>64</v>
+      </c>
       <c r="G43" s="7"/>
       <c r="H43" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B44" s="7">
         <v>3</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="F44" s="14">
+        <v>64</v>
+      </c>
       <c r="G44" s="7"/>
       <c r="H44" s="9"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B45" s="7">
         <v>4</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F45" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="F45" s="14">
+        <v>64</v>
+      </c>
       <c r="G45" s="7"/>
       <c r="H45" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B46" s="7">
         <v>5</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="F46" s="14">
+        <v>64</v>
+      </c>
       <c r="G46" s="7"/>
       <c r="H46" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B47" s="7">
         <v>6</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="7"/>
+      <c r="F47" s="14">
+        <v>64</v>
+      </c>
       <c r="G47" s="7"/>
-      <c r="H47" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H47" s="9"/>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B48" s="7">
         <v>7</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F48" s="7"/>
+      <c r="F48" s="14">
+        <v>64</v>
+      </c>
       <c r="G48" s="7"/>
-      <c r="H48" s="9" t="s">
-        <v>47</v>
+      <c r="H48" s="9"/>
+      <c r="J48" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="W48" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -2341,68 +2552,70 @@
         <v>8</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F49" s="7"/>
+      <c r="F49" s="14">
+        <v>64</v>
+      </c>
       <c r="G49" s="7"/>
-      <c r="H49" s="9" t="s">
-        <v>47</v>
-      </c>
+      <c r="H49" s="9"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="7">
         <v>9</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="7"/>
+      <c r="F50" s="14">
+        <v>64</v>
+      </c>
       <c r="G50" s="7"/>
-      <c r="H50" s="9" t="s">
-        <v>47</v>
-      </c>
+      <c r="H50" s="9"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="7">
         <v>10</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="F51" s="14">
+        <v>64</v>
+      </c>
       <c r="G51" s="7"/>
       <c r="H51" s="9" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
+      <c r="B55" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
@@ -2421,7 +2634,7 @@
         <v>12</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>13</v>
@@ -2432,18 +2645,20 @@
         <v>1</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F57" s="7"/>
+      <c r="F57" s="14">
+        <v>64</v>
+      </c>
       <c r="G57" s="7"/>
       <c r="H57" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
@@ -2451,15 +2666,17 @@
         <v>2</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F58" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="F58" s="14">
+        <v>64</v>
+      </c>
       <c r="G58" s="7"/>
       <c r="H58" s="9"/>
     </row>
@@ -2468,20 +2685,20 @@
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
-      <c r="F59" s="7"/>
+      <c r="F59" s="14"/>
       <c r="G59" s="7"/>
       <c r="H59" s="9"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
+      <c r="B62" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
@@ -2500,7 +2717,7 @@
         <v>12</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>13</v>
@@ -2511,60 +2728,76 @@
         <v>1</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F64" s="7"/>
+      <c r="F64" s="14">
+        <v>64</v>
+      </c>
       <c r="G64" s="7"/>
       <c r="H64" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B65" s="7">
         <v>2</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F65" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="F65" s="14">
+        <v>64</v>
+      </c>
       <c r="G65" s="7"/>
       <c r="H65" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B66" s="7"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
-      <c r="F66" s="7"/>
+      <c r="F66" s="14"/>
       <c r="G66" s="7"/>
       <c r="H66" s="9"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B69" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="J69" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="V69" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="W69" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B70" s="4" t="s">
         <v>0</v>
       </c>
@@ -2581,111 +2814,121 @@
         <v>12</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B71" s="7">
         <v>1</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="7"/>
+      <c r="F71" s="14">
+        <v>64</v>
+      </c>
       <c r="G71" s="7"/>
       <c r="H71" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B72" s="7">
         <v>2</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F72" s="7"/>
+      <c r="F72" s="14">
+        <v>64</v>
+      </c>
       <c r="G72" s="7"/>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B73" s="7">
         <v>3</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F73" s="7"/>
+      <c r="F73" s="14">
+        <v>64</v>
+      </c>
       <c r="G73" s="7"/>
       <c r="H73" s="9"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B74" s="7">
         <v>4</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F74" s="7"/>
+      <c r="F74" s="14">
+        <v>64</v>
+      </c>
       <c r="G74" s="7"/>
       <c r="H74" s="9"/>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B75" s="7">
         <v>5</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="E75" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F75" s="7"/>
+      <c r="F75" s="14">
+        <v>64</v>
+      </c>
       <c r="G75" s="7"/>
       <c r="H75" s="9"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B78" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B79" s="4" t="s">
         <v>0</v>
       </c>
@@ -2702,164 +2945,180 @@
         <v>12</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B80" s="7">
         <v>1</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F80" s="7"/>
+      <c r="F80" s="14">
+        <v>64</v>
+      </c>
       <c r="G80" s="7"/>
       <c r="H80" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B81" s="7">
         <v>2</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="E81" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F81" s="7"/>
+      <c r="F81" s="14">
+        <v>64</v>
+      </c>
       <c r="G81" s="7"/>
       <c r="H81" s="9"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B82" s="7">
         <v>3</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="7"/>
+      <c r="F82" s="14">
+        <v>64</v>
+      </c>
       <c r="G82" s="7"/>
       <c r="H82" s="9"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B83" s="7">
         <v>4</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F83" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="F83" s="14">
+        <v>64</v>
+      </c>
       <c r="G83" s="7"/>
       <c r="H83" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B84" s="7">
         <v>5</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F84" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="F84" s="14">
+        <v>64</v>
+      </c>
       <c r="G84" s="7"/>
       <c r="H84" s="9"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B85" s="7">
         <v>6</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F85" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="F85" s="14">
+        <v>64</v>
+      </c>
       <c r="G85" s="7"/>
       <c r="H85" s="9"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B86" s="7">
         <v>7</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F86" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="F86" s="14">
+        <v>64</v>
+      </c>
       <c r="G86" s="7"/>
       <c r="H86" s="9"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B87" s="7">
         <v>8</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F87" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="F87" s="14">
+        <v>64</v>
+      </c>
       <c r="G87" s="7"/>
       <c r="H87" s="9"/>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="14"/>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B90" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="19"/>
+    </row>
+    <row r="91" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B91" s="4" t="s">
         <v>0</v>
       </c>
@@ -2876,109 +3135,131 @@
         <v>12</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H91" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J91" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="V91" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="W91" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="92" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B92" s="7">
         <v>1</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F92" s="7"/>
+      <c r="F92" s="14">
+        <v>64</v>
+      </c>
       <c r="G92" s="7"/>
       <c r="H92" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B93" s="7">
         <v>2</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="E93" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F93" s="7"/>
+      <c r="F93" s="14">
+        <v>64</v>
+      </c>
       <c r="G93" s="7"/>
       <c r="H93" s="9"/>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B94" s="7">
         <v>3</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F94" s="7"/>
+      <c r="F94" s="14">
+        <v>64</v>
+      </c>
       <c r="G94" s="7"/>
       <c r="H94" s="9"/>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B95" s="7">
         <v>4</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E95" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F95" s="7"/>
+      <c r="F95" s="14">
+        <v>64</v>
+      </c>
       <c r="G95" s="7"/>
       <c r="H95" s="9"/>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B96" s="7">
         <v>5</v>
       </c>
       <c r="C96" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D96" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D96" s="8" t="s">
-        <v>131</v>
-      </c>
       <c r="E96" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F96" s="7"/>
+      <c r="F96" s="14">
+        <v>64</v>
+      </c>
       <c r="G96" s="7"/>
       <c r="H96" s="9"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="14"/>
+      <c r="B99" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="19"/>
+      <c r="H99" s="19"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="4" t="s">
@@ -2997,7 +3278,7 @@
         <v>12</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H100" s="6" t="s">
         <v>13</v>
@@ -3008,18 +3289,20 @@
         <v>1</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F101" s="7"/>
+      <c r="F101" s="14">
+        <v>64</v>
+      </c>
       <c r="G101" s="7"/>
       <c r="H101" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
@@ -3027,15 +3310,17 @@
         <v>2</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F102" s="7"/>
+      <c r="F102" s="14">
+        <v>64</v>
+      </c>
       <c r="G102" s="7"/>
       <c r="H102" s="9"/>
     </row>
@@ -3044,15 +3329,17 @@
         <v>3</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E103" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F103" s="7"/>
+      <c r="F103" s="14">
+        <v>64</v>
+      </c>
       <c r="G103" s="7"/>
       <c r="H103" s="9"/>
     </row>
@@ -3061,18 +3348,20 @@
         <v>4</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F104" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="F104" s="14">
+        <v>64</v>
+      </c>
       <c r="G104" s="7"/>
       <c r="H104" s="9" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
@@ -3080,15 +3369,17 @@
         <v>5</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F105" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="F105" s="14">
+        <v>64</v>
+      </c>
       <c r="G105" s="7"/>
       <c r="H105" s="9"/>
     </row>
@@ -3097,15 +3388,17 @@
         <v>6</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F106" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="F106" s="14">
+        <v>64</v>
+      </c>
       <c r="G106" s="7"/>
       <c r="H106" s="9"/>
     </row>
@@ -3114,28 +3407,30 @@
         <v>7</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F107" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="F107" s="14">
+        <v>64</v>
+      </c>
       <c r="G107" s="7"/>
       <c r="H107" s="9"/>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c r="G110" s="14"/>
-      <c r="H110" s="14"/>
+      <c r="B110" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="19"/>
+      <c r="H110" s="19"/>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="4" t="s">
@@ -3154,7 +3449,7 @@
         <v>12</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H111" s="6" t="s">
         <v>13</v>
@@ -3165,32 +3460,48 @@
         <v>1</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="E112" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F112" s="7"/>
+      <c r="F112" s="14">
+        <v>64</v>
+      </c>
       <c r="G112" s="7"/>
       <c r="H112" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c r="G115" s="14"/>
-      <c r="H115" s="14"/>
-    </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="113" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="J113" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="V113" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="W113" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="115" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B115" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C115" s="19"/>
+      <c r="D115" s="19"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="19"/>
+      <c r="G115" s="19"/>
+      <c r="H115" s="19"/>
+    </row>
+    <row r="116" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B116" s="4" t="s">
         <v>0</v>
       </c>
@@ -3207,101 +3518,113 @@
         <v>12</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H116" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B117" s="7">
         <v>1</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="E117" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F117" s="7"/>
+      <c r="F117" s="14">
+        <v>64</v>
+      </c>
       <c r="G117" s="7"/>
       <c r="H117" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="118" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B118" s="7">
         <v>2</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="E118" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F118" s="7"/>
+      <c r="F118" s="14">
+        <v>64</v>
+      </c>
       <c r="G118" s="7"/>
       <c r="H118" s="9"/>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B119" s="7">
         <v>3</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="E119" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F119" s="7"/>
+      <c r="F119" s="14">
+        <v>64</v>
+      </c>
       <c r="G119" s="7"/>
       <c r="H119" s="9"/>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B120" s="7">
         <v>4</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="E120" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F120" s="7"/>
+      <c r="F120" s="14">
+        <v>64</v>
+      </c>
       <c r="G120" s="7"/>
       <c r="H120" s="9"/>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B121" s="7">
         <v>5</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E121" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F121" s="7"/>
+      <c r="F121" s="14">
+        <v>64</v>
+      </c>
       <c r="G121" s="7"/>
       <c r="H121" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="J13:T13"/>
+    <mergeCell ref="J16:T18"/>
     <mergeCell ref="B115:H115"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B1:H1"/>

--- a/Doc/融创接口/设计协同项目/设计协同项目原型审批BPM字段.xlsx
+++ b/Doc/融创接口/设计协同项目/设计协同项目原型审批BPM字段.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0CAD\Project\融创\Code\Doc\融创接口\设计协同项目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E94B6C-31CE-4B2F-97AA-DB42E43FC08D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB8EF7C-E012-4CC3-B2B5-CC646978A674}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="181">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,14 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宽度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否有附框</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,10 +297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>height</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>airVolume</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -512,10 +500,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>长宽最小值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>冷凝水管位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -525,6 +509,124 @@
   </si>
   <si>
     <t>下水管位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计系统项目原型审批BPM字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代号-取值说明的父节点，可有多个参数取值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无，不限，值，范围，系列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P11:动态外窗原型审批；
+P12:静态外窗原型审批；
+P21:动态门原型审批；
+P22:静态门原型审批；
+P31:动态厨房原型审批；
+P32:静态厨房型审批
+P41:动态卫生间原型审批；
+P42:静态卫生间原型审批；
+P51:栏杆原型审批；
+P61:空调原型审批；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部，北京、华北、上海、东南、华中、西南、广深、海南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PageCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态外窗原型审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态外窗原型审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态厨房原型审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态厨房原型审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态卫生间原型审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态卫生间原型审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栏杆原型审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调原型审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件服务器中的原型dwg存储地址，也就是附件下载地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批流程：
+区域人员提交的两级审批：申请人-&gt;区域研发负责人-&gt;集团研发负责人
+集团人员提交的一级审批：申请人-&gt;集团研发负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：
+页面的大标题和流程主题为： 表单页面标题-原型编号   例如： 动态外窗原型审批-CD02X1
+附件链接统一为“原型文件地址”字段
+其余按字段名称对应表单内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -541,87 +643,130 @@
       </rPr>
       <t>通用数据</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计系统项目原型审批BPM字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代号-取值说明的父节点，可有多个参数取值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无，不限，值，范围，系列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表单类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P11:动态外窗原型审批；
-P12:静态外窗原型审批；
-P21:动态门原型审批；
-P22:静态门原型审批；
-P31:动态厨房原型审批；
-P32:静态厨房型审批
-P41:动态卫生间原型审批；
-P42:静态卫生间原型审批；
-P51:栏杆原型审批；
-P61:空调原型审批；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态外窗表单XML数据通用数据（表单类型P11）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>静态外窗表单XML数据通用数据（表单类型P12）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态门表单XML数据通用数据（表单类型P21）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>静态门表单XML数据通用数据（表单类型P22）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态厨房表单XML数据通用数据（表单类型P31）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>静态厨房表单XML数据通用数据（表单类型P32）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态卫生间表单XML数据通用数据（表单类型P41）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>静态卫生间单XML数据通用数据（表单类型P42）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>栏杆表单XML数据通用数据（表单类型P51）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空调表单XML数据通用数据（表单类型P61）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P21</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(每个表都有的数据）</t>
+    </r>
+  </si>
+  <si>
+    <t>动态外窗表单XML数据（表单类型P11）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态外窗表单XML数据（表单类型P12）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态门表单XML数据（表单类型P21）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态门表单XML数据（表单类型P22）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态厨房表单XML数据（表单类型P31）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态厨房表单XML数据（表单类型P32）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态卫生间表单XML数据（表单类型P41）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态卫生间单XML数据（表单类型P42）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栏杆表单XML数据（表单类型P51）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调表单XML数据（表单类型P61）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例：1800x1600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>widthHeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽度高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态模块/静态模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例：800-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bathroomType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小尺寸范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例：1200x800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condensatePipePos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sewerPipePos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasSewerPipe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门窗对开/门窗垂直</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是/否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁艺栏杆/玻璃栏杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0/1.5/2/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侧边/后边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -629,96 +774,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P61</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部，北京、华北、上海、东南、华中、西南、广深、海南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PageCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态外窗原型审批</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>静态外窗原型审批</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>动态门原型审批</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>静态门原型审批</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态厨房原型审批</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>静态厨房原型审批</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态卫生间原型审批</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>静态卫生间原型审批</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>栏杆原型审批</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空调原型审批</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件服务器中的原型dwg存储地址，也就是附件下载地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批流程：
-区域人员提交的两级审批：申请人-&gt;区域研发负责人-&gt;集团研发负责人
-集团人员提交的一级审批：申请人-&gt;集团研发负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明：
-页面的大标题和流程主题为： 表单页面标题-原型编号   例如： 动态外窗原型审批-CD02X1
-附件链接统一为“原型文件地址”字段
-其余按字段名称对应表单内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -726,7 +786,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -762,8 +822,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -773,6 +839,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,7 +887,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -862,6 +934,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -873,6 +948,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -896,22 +974,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>10886</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>21771</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>18936</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>39920</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>103910</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11">
+        <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{713F1C3C-14FF-4D00-87DA-38ACEB7580CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0107FAD3-E307-4943-8883-593B1AFEC0A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -927,8 +1005,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8567057" y="6117771"/>
-          <a:ext cx="6713650" cy="5344886"/>
+          <a:off x="8711045" y="6684819"/>
+          <a:ext cx="6707420" cy="5282046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -939,23 +1017,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>15661</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>110835</xdr:rowOff>
+      <xdr:colOff>12077</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>121228</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 12">
+        <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FB724E3-708B-4D4D-B335-BB6EF3E7CF07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B33F8A3-BD77-4D57-87BB-258CB5061D30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -971,8 +1049,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15857220" y="6141720"/>
-          <a:ext cx="6728881" cy="4073236"/>
+          <a:off x="15984682" y="6684818"/>
+          <a:ext cx="6679577" cy="4052455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -985,21 +1063,21 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>41556</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38446</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>29953</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>180102</xdr:rowOff>
+      <xdr:colOff>96749</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="图片 13">
+        <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77289282-6E5F-40BF-96F5-BE4D3EB27EB7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC4D90CA-FE6D-4915-8B0A-4D10FE1D98B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1015,8 +1093,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8548255" y="11762501"/>
-          <a:ext cx="6735553" cy="3629891"/>
+          <a:off x="8711045" y="12524855"/>
+          <a:ext cx="6764249" cy="3633008"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1028,22 +1106,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>13855</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>27702</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>24317</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>131981</xdr:rowOff>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>76423</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="图片 14">
+        <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DB4111E-20C3-4BC3-91C1-19BB6F5999C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C419068A-D782-4B08-B31B-307A1B990FD6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1059,8 +1137,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15877310" y="11748647"/>
-          <a:ext cx="6691745" cy="3595624"/>
+          <a:off x="15945971" y="12294758"/>
+          <a:ext cx="6673612" cy="3481106"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1071,23 +1149,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>20089</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>79766</xdr:rowOff>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>131239</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="图片 15">
+        <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC890F38-A2C3-42E9-8330-FCEF8749703C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{219FB1C3-A26C-4BB8-B834-AE89F50C5EC9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1103,8 +1181,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8542020" y="16047720"/>
-          <a:ext cx="6733309" cy="3844046"/>
+          <a:off x="8739188" y="15811500"/>
+          <a:ext cx="6857999" cy="3560239"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1116,22 +1194,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>82227</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>176894</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>166875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="图片 16">
+        <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7898F5B7-3610-49FE-AEFC-EE0D895B2F8E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{015702AE-5160-4B2D-BF37-4FECB82315D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1147,8 +1225,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15864840" y="16047720"/>
-          <a:ext cx="6705600" cy="4044626"/>
+          <a:off x="16070038" y="16614321"/>
+          <a:ext cx="6300106" cy="4044911"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1159,23 +1237,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>19274</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>4930</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>33128</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>180525</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>114622</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="图片 17">
+        <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E1F7CF1-4C9B-4B0B-8FA4-1B5AFC1E38AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6810147-3720-46E0-8622-EEFA3AC04A02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1191,8 +1269,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15886803" y="20525142"/>
-          <a:ext cx="6719454" cy="3922842"/>
+          <a:off x="8722180" y="21104679"/>
+          <a:ext cx="6749142" cy="3788550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1203,23 +1281,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>17929</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>13897</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>1861</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>69314</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>41224</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>51954</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="图片 18">
+        <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87A1F597-D82C-4275-9482-1A9CD85EA411}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CEFED89-4086-4A64-A793-3DFFE4B51D53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1235,8 +1313,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8570258" y="20534109"/>
-          <a:ext cx="6689532" cy="3802664"/>
+          <a:off x="15984681" y="21422591"/>
+          <a:ext cx="6708725" cy="4000499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1248,22 +1326,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>7621</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>21475</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>196897</xdr:rowOff>
+      <xdr:colOff>34637</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>124451</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="图片 19">
+        <xdr:cNvPr id="10" name="图片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33C56B54-C798-4B0D-B007-9EBC049A599A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5835403C-1F3D-41A9-87EA-0F2E6B68B1CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1279,8 +1357,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8557261" y="24772620"/>
-          <a:ext cx="6719454" cy="3557317"/>
+          <a:off x="8711045" y="25994591"/>
+          <a:ext cx="6702137" cy="3449542"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1291,23 +1369,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>608255</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>30481</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>12509</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>85247</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>177154</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="图片 20">
+        <xdr:cNvPr id="11" name="图片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4396A171-3E87-4B24-A4D8-1927DBCA98C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E4DC8F-5788-4189-B9F8-9B455DFC988C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1323,8 +1401,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15866184" y="24889610"/>
-          <a:ext cx="6719454" cy="3802013"/>
+          <a:off x="15984682" y="25994592"/>
+          <a:ext cx="6667500" cy="3710062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1599,17 +1677,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W121"/>
+  <dimension ref="A1:X120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="V113" sqref="V113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.21875" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="2"/>
@@ -1619,15 +1697,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
@@ -1718,7 +1796,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>22</v>
@@ -1727,7 +1805,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="9"/>
@@ -1771,15 +1849,15 @@
       <c r="H8" s="9"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="B11" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
@@ -1798,7 +1876,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>13</v>
@@ -1809,41 +1887,41 @@
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F13" s="14">
         <v>64</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
+        <v>126</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <v>2</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>25</v>
@@ -1856,7 +1934,7 @@
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J14" s="15"/>
     </row>
@@ -1865,7 +1943,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>23</v>
@@ -1886,7 +1964,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>26</v>
@@ -1899,26 +1977,26 @@
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="9"/>
-      <c r="J16" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-    </row>
-    <row r="17" spans="1:23" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="J16" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+    </row>
+    <row r="17" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B17" s="14">
         <v>5</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>39</v>
@@ -1931,26 +2009,26 @@
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-    </row>
-    <row r="18" spans="1:23" ht="31.2" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+    </row>
+    <row r="18" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
         <v>6</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>27</v>
@@ -1963,26 +2041,26 @@
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B19" s="14">
         <v>7</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>28</v>
@@ -1993,10 +2071,10 @@
       <c r="F19" s="14"/>
       <c r="G19" s="7"/>
       <c r="H19" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
@@ -2006,31 +2084,33 @@
       <c r="G20" s="11"/>
       <c r="H20" s="13"/>
       <c r="I20" s="10"/>
-      <c r="J20" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B21" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="J20" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="L20" s="21"/>
+      <c r="V20" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="W20" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="X20" s="21"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B21" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>0</v>
       </c>
@@ -2047,18 +2127,18 @@
         <v>12</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B23" s="7">
         <v>1</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>29</v>
@@ -2072,12 +2152,12 @@
       <c r="G23" s="7"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B24" s="7">
         <v>2</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>40</v>
@@ -2093,12 +2173,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B25" s="7">
         <v>3</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>41</v>
@@ -2112,15 +2192,15 @@
       <c r="G25" s="7"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B26" s="7">
         <v>4</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>11</v>
@@ -2133,12 +2213,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B27" s="7">
         <v>5</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>30</v>
@@ -2154,29 +2234,29 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B28" s="7">
         <v>6</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="14"/>
       <c r="G28" s="7"/>
       <c r="H28" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B29" s="7">
         <v>7</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>31</v>
@@ -2188,16 +2268,16 @@
         <v>64</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B30" s="7">
         <v>8</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>32</v>
@@ -2209,16 +2289,16 @@
         <v>64</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B31" s="7">
         <v>9</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>33</v>
@@ -2230,16 +2310,16 @@
         <v>64</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B32" s="7">
         <v>10</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>34</v>
@@ -2251,16 +2331,16 @@
         <v>64</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B33" s="7">
         <v>11</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>35</v>
@@ -2272,16 +2352,16 @@
         <v>64</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B34" s="7">
         <v>12</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>36</v>
@@ -2293,18 +2373,18 @@
         <v>64</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B35" s="7">
         <v>13</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>37</v>
@@ -2316,16 +2396,16 @@
         <v>64</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B36" s="7">
         <v>14</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>38</v>
@@ -2337,19 +2417,19 @@
         <v>64</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B37" s="7">
         <v>15</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>11</v>
@@ -2358,22 +2438,22 @@
         <v>64</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B40" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B40" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>0</v>
       </c>
@@ -2390,18 +2470,18 @@
         <v>12</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B42" s="7">
         <v>1</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>29</v>
@@ -2415,12 +2495,12 @@
       <c r="G42" s="7"/>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B43" s="7">
         <v>2</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>40</v>
@@ -2433,15 +2513,15 @@
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B44" s="7">
         <v>3</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>41</v>
@@ -2455,15 +2535,15 @@
       <c r="G44" s="7"/>
       <c r="H44" s="9"/>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B45" s="7">
         <v>4</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>11</v>
@@ -2476,12 +2556,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B46" s="7">
         <v>5</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>30</v>
@@ -2497,15 +2577,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B47" s="7">
         <v>6</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>11</v>
@@ -2514,17 +2594,33 @@
         <v>64</v>
       </c>
       <c r="G47" s="7"/>
-      <c r="H47" s="9"/>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B48" s="7">
+      <c r="H47" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="J47" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="K47" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="L47" s="21"/>
+      <c r="V47" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="W47" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="X47" s="21"/>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B48" s="16">
         <v>7</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>11</v>
@@ -2534,28 +2630,16 @@
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="9"/>
-      <c r="J48" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="V48" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="W48" s="1" t="s">
-        <v>158</v>
-      </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="7">
+      <c r="B49" s="16">
         <v>8</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>11</v>
@@ -2567,14 +2651,14 @@
       <c r="H49" s="9"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="7">
+      <c r="B50" s="16">
         <v>9</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>11</v>
@@ -2583,252 +2667,258 @@
         <v>64</v>
       </c>
       <c r="G50" s="7"/>
-      <c r="H50" s="9"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="7">
-        <v>10</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="14">
-        <v>64</v>
-      </c>
-      <c r="G51" s="7"/>
-      <c r="H51" s="9" t="s">
+      <c r="H50" s="9" t="s">
         <v>43</v>
       </c>
     </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+    </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
+      <c r="B55" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="5" t="s">
+      <c r="B56" s="7">
         <v>1</v>
       </c>
-      <c r="E56" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="4" t="s">
+      <c r="C56" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H56" s="6" t="s">
-        <v>13</v>
+      <c r="D56" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="14">
+        <v>64</v>
+      </c>
+      <c r="G56" s="7"/>
+      <c r="H56" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D57" s="8" t="s">
-        <v>83</v>
-      </c>
       <c r="E57" s="8" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="F57" s="14">
         <v>64</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="9" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="7">
-        <v>2</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F58" s="14">
-        <v>64</v>
-      </c>
+      <c r="B58" s="7"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="14"/>
       <c r="G58" s="7"/>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="7"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="9"/>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
+      <c r="B62" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" s="5" t="s">
+      <c r="B63" s="7">
         <v>1</v>
       </c>
-      <c r="E63" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" s="4" t="s">
+      <c r="C63" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H63" s="6" t="s">
-        <v>13</v>
+      <c r="D63" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="14">
+        <v>64</v>
+      </c>
+      <c r="G63" s="7"/>
+      <c r="H63" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="F64" s="14">
         <v>64</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B65" s="7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B65" s="7"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="9"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B68" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="J68" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="K68" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="L68" s="21"/>
+      <c r="V68" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="W68" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="X68" s="21"/>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="F69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B70" s="7">
+        <v>1</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="14">
+        <v>64</v>
+      </c>
+      <c r="G70" s="7"/>
+      <c r="H70" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D65" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F65" s="14">
-        <v>64</v>
-      </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B66" s="7"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="9"/>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B69" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-      <c r="J69" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="V69" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="W69" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B70" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E70" s="5" t="s">
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B71" s="7">
         <v>2</v>
       </c>
-      <c r="F70" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B71" s="7">
-        <v>1</v>
-      </c>
       <c r="C71" s="8" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>11</v>
@@ -2837,19 +2927,17 @@
         <v>64</v>
       </c>
       <c r="G71" s="7"/>
-      <c r="H71" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="H71" s="9"/>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B72" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>11</v>
@@ -2860,15 +2948,15 @@
       <c r="G72" s="7"/>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B73" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>11</v>
@@ -2879,15 +2967,15 @@
       <c r="G73" s="7"/>
       <c r="H73" s="9"/>
     </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B74" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>11</v>
@@ -2898,68 +2986,70 @@
       <c r="G74" s="7"/>
       <c r="H74" s="9"/>
     </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B75" s="7">
-        <v>5</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" s="14">
-        <v>64</v>
-      </c>
-      <c r="G75" s="7"/>
-      <c r="H75" s="9"/>
-    </row>
-    <row r="78" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B78" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="19"/>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B79" s="4" t="s">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B77" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="20"/>
+    </row>
+    <row r="78" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D78" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="E78" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="F78" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G79" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H79" s="6" t="s">
+      <c r="G78" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H78" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B79" s="7">
+        <v>1</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="14">
+        <v>64</v>
+      </c>
+      <c r="G79" s="7"/>
+      <c r="H79" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B80" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>11</v>
@@ -2968,19 +3058,17 @@
         <v>64</v>
       </c>
       <c r="G80" s="7"/>
-      <c r="H80" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="81" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="H80" s="9"/>
+    </row>
+    <row r="81" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B81" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E81" s="8" t="s">
         <v>11</v>
@@ -2991,18 +3079,18 @@
       <c r="G81" s="7"/>
       <c r="H81" s="9"/>
     </row>
-    <row r="82" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B82" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="F82" s="14">
         <v>64</v>
@@ -3010,39 +3098,37 @@
       <c r="G82" s="7"/>
       <c r="H82" s="9"/>
     </row>
-    <row r="83" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B83" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F83" s="14">
         <v>64</v>
       </c>
       <c r="G83" s="7"/>
-      <c r="H83" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="84" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="H83" s="9"/>
+    </row>
+    <row r="84" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B84" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C84" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D84" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D84" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="E84" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F84" s="14">
         <v>64</v>
@@ -3050,18 +3136,18 @@
       <c r="G84" s="7"/>
       <c r="H84" s="9"/>
     </row>
-    <row r="85" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B85" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F85" s="14">
         <v>64</v>
@@ -3069,18 +3155,18 @@
       <c r="G85" s="7"/>
       <c r="H85" s="9"/>
     </row>
-    <row r="86" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B86" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F86" s="14">
         <v>64</v>
@@ -3088,80 +3174,84 @@
       <c r="G86" s="7"/>
       <c r="H86" s="9"/>
     </row>
-    <row r="87" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B87" s="7">
-        <v>8</v>
-      </c>
-      <c r="C87" s="8" t="s">
+    <row r="89" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B89" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="20"/>
+    </row>
+    <row r="90" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B90" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J90" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="K90" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="L90" s="21"/>
+      <c r="V90" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="W90" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="X90" s="21"/>
+    </row>
+    <row r="91" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B91" s="7">
+        <v>1</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="14">
+        <v>64</v>
+      </c>
+      <c r="G91" s="7"/>
+      <c r="H91" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B92" s="7">
+        <v>2</v>
+      </c>
+      <c r="C92" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D87" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F87" s="14">
-        <v>64</v>
-      </c>
-      <c r="G87" s="7"/>
-      <c r="H87" s="9"/>
-    </row>
-    <row r="90" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B90" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="19"/>
-    </row>
-    <row r="91" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B91" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="V91" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="W91" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="92" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B92" s="7">
-        <v>1</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>95</v>
-      </c>
       <c r="D92" s="8" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>11</v>
@@ -3171,18 +3261,18 @@
       </c>
       <c r="G92" s="7"/>
       <c r="H92" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="93" spans="2:23" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="93" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B93" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E93" s="8" t="s">
         <v>11</v>
@@ -3191,14 +3281,16 @@
         <v>64</v>
       </c>
       <c r="G93" s="7"/>
-      <c r="H93" s="9"/>
-    </row>
-    <row r="94" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="H93" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="94" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B94" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>109</v>
@@ -3212,15 +3304,15 @@
       <c r="G94" s="7"/>
       <c r="H94" s="9"/>
     </row>
-    <row r="95" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B95" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E95" s="8" t="s">
         <v>11</v>
@@ -3231,68 +3323,70 @@
       <c r="G95" s="7"/>
       <c r="H95" s="9"/>
     </row>
-    <row r="96" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B96" s="7">
-        <v>5</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F96" s="14">
-        <v>64</v>
-      </c>
-      <c r="G96" s="7"/>
-      <c r="H96" s="9"/>
-    </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="19"/>
-      <c r="H99" s="19"/>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="4" t="s">
+    <row r="98" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B98" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="20"/>
+    </row>
+    <row r="99" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B99" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C99" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D99" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E100" s="5" t="s">
+      <c r="E99" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F100" s="4" t="s">
+      <c r="F99" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G100" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H100" s="6" t="s">
+      <c r="G99" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H99" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B100" s="7">
+        <v>1</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="14">
+        <v>64</v>
+      </c>
+      <c r="G100" s="7"/>
+      <c r="H100" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B101" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>11</v>
@@ -3302,18 +3396,18 @@
       </c>
       <c r="G101" s="7"/>
       <c r="H101" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="102" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B102" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>11</v>
@@ -3322,20 +3416,22 @@
         <v>64</v>
       </c>
       <c r="G102" s="7"/>
-      <c r="H102" s="9"/>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H102" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="103" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B103" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="F103" s="14">
         <v>64</v>
@@ -3343,39 +3439,37 @@
       <c r="G103" s="7"/>
       <c r="H103" s="9"/>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B104" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F104" s="14">
         <v>64</v>
       </c>
       <c r="G104" s="7"/>
-      <c r="H104" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H104" s="9"/>
+    </row>
+    <row r="105" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B105" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C105" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D105" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D105" s="8" t="s">
-        <v>116</v>
-      </c>
       <c r="E105" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F105" s="14">
         <v>64</v>
@@ -3383,18 +3477,18 @@
       <c r="G105" s="7"/>
       <c r="H105" s="9"/>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B106" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F106" s="14">
         <v>64</v>
@@ -3402,137 +3496,141 @@
       <c r="G106" s="7"/>
       <c r="H106" s="9"/>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B107" s="7">
-        <v>7</v>
-      </c>
-      <c r="C107" s="8" t="s">
+    <row r="109" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B109" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C109" s="20"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="20"/>
+      <c r="H109" s="20"/>
+    </row>
+    <row r="110" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B110" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H110" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B111" s="7">
+        <v>1</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" s="14">
+        <v>64</v>
+      </c>
+      <c r="G111" s="7"/>
+      <c r="H111" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="112" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="J112" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="K112" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="L112" s="21"/>
+      <c r="V112" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="W112" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="X112" s="21"/>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B114" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C114" s="20"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="20"/>
+      <c r="F114" s="20"/>
+      <c r="G114" s="20"/>
+      <c r="H114" s="20"/>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B115" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B116" s="7">
+        <v>1</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D116" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D107" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F107" s="14">
-        <v>64</v>
-      </c>
-      <c r="G107" s="7"/>
-      <c r="H107" s="9"/>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="19"/>
-      <c r="G110" s="19"/>
-      <c r="H110" s="19"/>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E111" s="5" t="s">
+      <c r="E116" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" s="14">
+        <v>64</v>
+      </c>
+      <c r="G116" s="7"/>
+      <c r="H116" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B117" s="7">
         <v>2</v>
       </c>
-      <c r="F111" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H111" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="7">
-        <v>1</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F112" s="14">
-        <v>64</v>
-      </c>
-      <c r="G112" s="7"/>
-      <c r="H112" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="113" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="J113" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="V113" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="W113" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="115" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B115" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C115" s="19"/>
-      <c r="D115" s="19"/>
-      <c r="E115" s="19"/>
-      <c r="F115" s="19"/>
-      <c r="G115" s="19"/>
-      <c r="H115" s="19"/>
-    </row>
-    <row r="116" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B116" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H116" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B117" s="7">
-        <v>1</v>
-      </c>
       <c r="C117" s="8" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="E117" s="8" t="s">
         <v>11</v>
@@ -3542,18 +3640,18 @@
       </c>
       <c r="G117" s="7"/>
       <c r="H117" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="118" spans="2:23" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E118" s="8" t="s">
         <v>11</v>
@@ -3562,17 +3660,19 @@
         <v>64</v>
       </c>
       <c r="G118" s="7"/>
-      <c r="H118" s="9"/>
-    </row>
-    <row r="119" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="H118" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E119" s="8" t="s">
         <v>11</v>
@@ -3583,15 +3683,15 @@
       <c r="G119" s="7"/>
       <c r="H119" s="9"/>
     </row>
-    <row r="120" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E120" s="8" t="s">
         <v>11</v>
@@ -3601,42 +3701,23 @@
       </c>
       <c r="G120" s="7"/>
       <c r="H120" s="9"/>
-    </row>
-    <row r="121" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B121" s="7">
-        <v>5</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F121" s="14">
-        <v>64</v>
-      </c>
-      <c r="G121" s="7"/>
-      <c r="H121" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="J13:T13"/>
     <mergeCell ref="J16:T18"/>
-    <mergeCell ref="B115:H115"/>
+    <mergeCell ref="B114:H114"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B69:H69"/>
-    <mergeCell ref="B78:H78"/>
-    <mergeCell ref="B90:H90"/>
-    <mergeCell ref="B99:H99"/>
-    <mergeCell ref="B110:H110"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B89:H89"/>
+    <mergeCell ref="B98:H98"/>
+    <mergeCell ref="B109:H109"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/融创接口/设计协同项目/设计协同项目原型审批BPM字段.xlsx
+++ b/Doc/融创接口/设计协同项目/设计协同项目原型审批BPM字段.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0CAD\Project\融创\Code\Doc\融创接口\设计协同项目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB8EF7C-E012-4CC3-B2B5-CC646978A674}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7358C772-8AD6-46E7-8FE0-16C8995A60E3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -937,6 +937,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -948,9 +951,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1679,35 +1679,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="V113" sqref="V113"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="11.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="37.33203125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="2"/>
+    <col min="7" max="7" width="11.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="37.375" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B1" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="7">
         <v>1</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B4" s="7">
         <v>2</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B5" s="7">
         <v>3</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B6" s="7">
         <v>4</v>
       </c>
@@ -1810,7 +1810,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="2:20" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20" ht="33" x14ac:dyDescent="0.2">
       <c r="B7" s="7">
         <v>5</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
         <v>6</v>
       </c>
@@ -1848,18 +1848,18 @@
       <c r="G8" s="7"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="20" t="s">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B11" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="156" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" ht="165" x14ac:dyDescent="0.2">
       <c r="B13" s="14">
         <v>1</v>
       </c>
@@ -1902,21 +1902,21 @@
       <c r="H13" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B14" s="14">
         <v>2</v>
       </c>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="J14" s="15"/>
     </row>
-    <row r="15" spans="2:20" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" ht="33" x14ac:dyDescent="0.2">
       <c r="B15" s="14">
         <v>3</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B16" s="14">
         <v>4</v>
       </c>
@@ -1977,21 +1977,21 @@
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="9"/>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-    </row>
-    <row r="17" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+    </row>
+    <row r="17" spans="1:24" ht="33" x14ac:dyDescent="0.2">
       <c r="B17" s="14">
         <v>5</v>
       </c>
@@ -2011,19 +2011,19 @@
       <c r="H17" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-    </row>
-    <row r="18" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+    </row>
+    <row r="18" spans="1:24" ht="33" x14ac:dyDescent="0.2">
       <c r="B18" s="14">
         <v>6</v>
       </c>
@@ -2043,19 +2043,19 @@
       <c r="H18" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B19" s="14">
         <v>7</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
@@ -2084,33 +2084,33 @@
       <c r="G20" s="11"/>
       <c r="H20" s="13"/>
       <c r="I20" s="10"/>
-      <c r="J20" s="21" t="s">
+      <c r="J20" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="K20" s="21" t="s">
+      <c r="K20" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="L20" s="21"/>
-      <c r="V20" s="21" t="s">
+      <c r="L20" s="17"/>
+      <c r="V20" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="W20" s="21" t="s">
+      <c r="W20" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="X20" s="21"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
+      <c r="X20" s="17"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B21" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>0</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B23" s="7">
         <v>1</v>
       </c>
@@ -2152,7 +2152,7 @@
       <c r="G23" s="7"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B24" s="7">
         <v>2</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B25" s="7">
         <v>3</v>
       </c>
@@ -2192,7 +2192,7 @@
       <c r="G25" s="7"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B26" s="7">
         <v>4</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B27" s="7">
         <v>5</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B28" s="7">
         <v>6</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B29" s="7">
         <v>7</v>
       </c>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B30" s="7">
         <v>8</v>
       </c>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B31" s="7">
         <v>9</v>
       </c>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B32" s="7">
         <v>10</v>
       </c>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B33" s="7">
         <v>11</v>
       </c>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B34" s="7">
         <v>12</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B35" s="7">
         <v>13</v>
       </c>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B36" s="7">
         <v>14</v>
       </c>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="7">
         <v>15</v>
       </c>
@@ -2442,18 +2442,18 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B40" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
         <v>0</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B42" s="7">
         <v>1</v>
       </c>
@@ -2495,7 +2495,7 @@
       <c r="G42" s="7"/>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B43" s="7">
         <v>2</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B44" s="7">
         <v>3</v>
       </c>
@@ -2535,7 +2535,7 @@
       <c r="G44" s="7"/>
       <c r="H44" s="9"/>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B45" s="7">
         <v>4</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B46" s="7">
         <v>5</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B47" s="7">
         <v>6</v>
       </c>
@@ -2597,22 +2597,22 @@
       <c r="H47" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="J47" s="21" t="s">
+      <c r="J47" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="K47" s="21" t="s">
+      <c r="K47" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="L47" s="21"/>
-      <c r="V47" s="21" t="s">
+      <c r="L47" s="17"/>
+      <c r="V47" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="W47" s="21" t="s">
+      <c r="W47" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="X47" s="21"/>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X47" s="17"/>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B48" s="16">
         <v>7</v>
       </c>
@@ -2631,7 +2631,7 @@
       <c r="G48" s="7"/>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="16">
         <v>8</v>
       </c>
@@ -2650,7 +2650,7 @@
       <c r="G49" s="7"/>
       <c r="H49" s="9"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="16">
         <v>9</v>
       </c>
@@ -2671,18 +2671,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="20" t="s">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B54" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
         <v>0</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B56" s="7">
         <v>1</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B57" s="7">
         <v>2</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" s="7"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -2756,18 +2756,18 @@
       <c r="G58" s="7"/>
       <c r="H58" s="9"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="20" t="s">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B61" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
         <v>0</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B63" s="7">
         <v>1</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B64" s="7">
         <v>2</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B65" s="7"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -2841,32 +2841,32 @@
       <c r="G65" s="7"/>
       <c r="H65" s="9"/>
     </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B68" s="20" t="s">
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B68" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-      <c r="J68" s="21" t="s">
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="J68" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="K68" s="21" t="s">
+      <c r="K68" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="L68" s="21"/>
-      <c r="V68" s="21" t="s">
+      <c r="L68" s="17"/>
+      <c r="V68" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="W68" s="21" t="s">
+      <c r="W68" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="X68" s="21"/>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X68" s="17"/>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B69" s="4" t="s">
         <v>0</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B70" s="7">
         <v>1</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B71" s="7">
         <v>2</v>
       </c>
@@ -2929,7 +2929,7 @@
       <c r="G71" s="7"/>
       <c r="H71" s="9"/>
     </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B72" s="7">
         <v>3</v>
       </c>
@@ -2948,7 +2948,7 @@
       <c r="G72" s="7"/>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B73" s="7">
         <v>4</v>
       </c>
@@ -2967,7 +2967,7 @@
       <c r="G73" s="7"/>
       <c r="H73" s="9"/>
     </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B74" s="7">
         <v>5</v>
       </c>
@@ -2986,18 +2986,18 @@
       <c r="G74" s="7"/>
       <c r="H74" s="9"/>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B77" s="20" t="s">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B77" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
-    </row>
-    <row r="78" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+    </row>
+    <row r="78" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B78" s="4" t="s">
         <v>0</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="7">
         <v>1</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B80" s="7">
         <v>2</v>
       </c>
@@ -3060,7 +3060,7 @@
       <c r="G80" s="7"/>
       <c r="H80" s="9"/>
     </row>
-    <row r="81" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B81" s="7">
         <v>3</v>
       </c>
@@ -3079,7 +3079,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="9"/>
     </row>
-    <row r="82" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B82" s="7">
         <v>4</v>
       </c>
@@ -3098,7 +3098,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="9"/>
     </row>
-    <row r="83" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B83" s="7">
         <v>5</v>
       </c>
@@ -3117,7 +3117,7 @@
       <c r="G83" s="7"/>
       <c r="H83" s="9"/>
     </row>
-    <row r="84" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B84" s="7">
         <v>6</v>
       </c>
@@ -3136,7 +3136,7 @@
       <c r="G84" s="7"/>
       <c r="H84" s="9"/>
     </row>
-    <row r="85" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B85" s="7">
         <v>7</v>
       </c>
@@ -3155,7 +3155,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="9"/>
     </row>
-    <row r="86" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B86" s="7">
         <v>8</v>
       </c>
@@ -3174,18 +3174,18 @@
       <c r="G86" s="7"/>
       <c r="H86" s="9"/>
     </row>
-    <row r="89" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B89" s="20" t="s">
+    <row r="89" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B89" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="20"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="20"/>
-    </row>
-    <row r="90" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+    </row>
+    <row r="90" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B90" s="4" t="s">
         <v>0</v>
       </c>
@@ -3207,22 +3207,22 @@
       <c r="H90" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J90" s="21" t="s">
+      <c r="J90" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="K90" s="21" t="s">
+      <c r="K90" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="L90" s="21"/>
-      <c r="V90" s="21" t="s">
+      <c r="L90" s="17"/>
+      <c r="V90" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="W90" s="21" t="s">
+      <c r="W90" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="X90" s="21"/>
-    </row>
-    <row r="91" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X90" s="17"/>
+    </row>
+    <row r="91" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B91" s="7">
         <v>1</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B92" s="7">
         <v>2</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="93" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B93" s="7">
         <v>3</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="94" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B94" s="7">
         <v>4</v>
       </c>
@@ -3304,7 +3304,7 @@
       <c r="G94" s="7"/>
       <c r="H94" s="9"/>
     </row>
-    <row r="95" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B95" s="7">
         <v>5</v>
       </c>
@@ -3323,18 +3323,18 @@
       <c r="G95" s="7"/>
       <c r="H95" s="9"/>
     </row>
-    <row r="98" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B98" s="20" t="s">
+    <row r="98" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B98" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="C98" s="20"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="20"/>
-      <c r="H98" s="20"/>
-    </row>
-    <row r="99" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C98" s="21"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
+    </row>
+    <row r="99" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B99" s="4" t="s">
         <v>0</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B100" s="7">
         <v>1</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="101" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B101" s="7">
         <v>2</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="102" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B102" s="7">
         <v>3</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="103" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B103" s="7">
         <v>4</v>
       </c>
@@ -3439,7 +3439,7 @@
       <c r="G103" s="7"/>
       <c r="H103" s="9"/>
     </row>
-    <row r="104" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B104" s="7">
         <v>5</v>
       </c>
@@ -3458,7 +3458,7 @@
       <c r="G104" s="7"/>
       <c r="H104" s="9"/>
     </row>
-    <row r="105" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B105" s="7">
         <v>6</v>
       </c>
@@ -3477,7 +3477,7 @@
       <c r="G105" s="7"/>
       <c r="H105" s="9"/>
     </row>
-    <row r="106" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B106" s="7">
         <v>7</v>
       </c>
@@ -3496,18 +3496,18 @@
       <c r="G106" s="7"/>
       <c r="H106" s="9"/>
     </row>
-    <row r="109" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B109" s="20" t="s">
+    <row r="109" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B109" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="C109" s="20"/>
-      <c r="D109" s="20"/>
-      <c r="E109" s="20"/>
-      <c r="F109" s="20"/>
-      <c r="G109" s="20"/>
-      <c r="H109" s="20"/>
-    </row>
-    <row r="110" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C109" s="21"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="21"/>
+    </row>
+    <row r="110" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B110" s="4" t="s">
         <v>0</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B111" s="7">
         <v>1</v>
       </c>
@@ -3551,34 +3551,34 @@
         <v>174</v>
       </c>
     </row>
-    <row r="112" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="J112" s="21" t="s">
+    <row r="112" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="J112" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="K112" s="21" t="s">
+      <c r="K112" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="L112" s="21"/>
-      <c r="V112" s="21" t="s">
+      <c r="L112" s="17"/>
+      <c r="V112" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="W112" s="21" t="s">
+      <c r="W112" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="X112" s="21"/>
-    </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="20" t="s">
+      <c r="X112" s="17"/>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B114" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="C114" s="20"/>
-      <c r="D114" s="20"/>
-      <c r="E114" s="20"/>
-      <c r="F114" s="20"/>
-      <c r="G114" s="20"/>
-      <c r="H114" s="20"/>
-    </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C114" s="21"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="21"/>
+      <c r="G114" s="21"/>
+      <c r="H114" s="21"/>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B115" s="4" t="s">
         <v>0</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B116" s="7">
         <v>1</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B117" s="7">
         <v>2</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B118" s="7">
         <v>3</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B119" s="7">
         <v>4</v>
       </c>
@@ -3683,7 +3683,7 @@
       <c r="G119" s="7"/>
       <c r="H119" s="9"/>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B120" s="7">
         <v>5</v>
       </c>
